--- a/src/analysis_examples/circadb/results_lomb/cosinor_10388488_fam101b_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10388488_fam101b_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.25899060246179306, 0.37559317761705424]</t>
+          <t>[0.2580270616802197, 0.3765567183986276]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.126019360559894e-10</v>
+        <v>2.861706427381705e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>2.126019360559894e-10</v>
+        <v>2.861706427381705e-10</v>
       </c>
       <c r="O2" t="n">
         <v>-1.182421259008771</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.38875497786821167, 0.45381717891749884]</t>
+          <t>[0.3887584331299597, 0.4538137236557508]</t>
         </is>
       </c>
       <c r="U2" t="n">
